--- a/MED01S.xlsx
+++ b/MED01S.xlsx
@@ -199,10 +199,16 @@
     <t>RT,(E-6B)</t>
   </si>
   <si>
-    <t>10039119</t>
-  </si>
-  <si>
-    <t>SM TOLAK ANGIN 12'S</t>
+    <t>20054951</t>
+  </si>
+  <si>
+    <t>S/M TOLAK/A ANAK 5'S</t>
+  </si>
+  <si>
+    <t>20034577</t>
+  </si>
+  <si>
+    <t>S/M TLK.ANGN+MDU 5'S</t>
   </si>
   <si>
     <t>20122907</t>
@@ -211,30 +217,18 @@
     <t>S/M TLK.ANGN FLU 5'S</t>
   </si>
   <si>
+    <t>20064502</t>
+  </si>
+  <si>
+    <t>S/M TLK ANGIN BG 5'S</t>
+  </si>
+  <si>
     <t>20064503</t>
   </si>
   <si>
     <t>S/M TLK LINU HRB 5'S</t>
   </si>
   <si>
-    <t>20064502</t>
-  </si>
-  <si>
-    <t>S/M TLK ANGIN BG 5'S</t>
-  </si>
-  <si>
-    <t>20034577</t>
-  </si>
-  <si>
-    <t>S/M TLK.ANGN+MDU 5'S</t>
-  </si>
-  <si>
-    <t>20054951</t>
-  </si>
-  <si>
-    <t>S/M TOLAK/A ANAK 5'S</t>
-  </si>
-  <si>
     <t>20059240</t>
   </si>
   <si>
@@ -247,18 +241,18 @@
     <t>ANTANGIN JRG 5X15ML</t>
   </si>
   <si>
+    <t>20114432</t>
+  </si>
+  <si>
+    <t>ANTANGIN HTBTSDA 5'S</t>
+  </si>
+  <si>
     <t>20054969</t>
   </si>
   <si>
     <t>ANTANGIN GNGR/M 5X15</t>
   </si>
   <si>
-    <t>20114432</t>
-  </si>
-  <si>
-    <t>ANTANGIN HTBTSDA 5'S</t>
-  </si>
-  <si>
     <t>20093959</t>
   </si>
   <si>
@@ -292,6 +286,12 @@
     <t>RT,(E-1B)</t>
   </si>
   <si>
+    <t>20138372</t>
+  </si>
+  <si>
+    <t>KOMIX OBH 6X7ML</t>
+  </si>
+  <si>
     <t>20092712</t>
   </si>
   <si>
@@ -391,12 +391,6 @@
     <t>INSTO COOL 7.5ML</t>
   </si>
   <si>
-    <t>20138372</t>
-  </si>
-  <si>
-    <t>KOMIX OBH 6X7ML</t>
-  </si>
-  <si>
     <t>20129405</t>
   </si>
   <si>
@@ -670,7 +664,7 @@
     <t>10000473</t>
   </si>
   <si>
-    <t>BODREXIN OBAT JRK16S</t>
+    <t>BODREXIN OBAT JRK12S</t>
   </si>
   <si>
     <t>10008683</t>
@@ -901,6 +895,12 @@
     <t>MYLANTA OBAT MAAG 10</t>
   </si>
   <si>
+    <t>10010246</t>
+  </si>
+  <si>
+    <t>NEUROBION VIT.10'S</t>
+  </si>
+  <si>
     <t>10035326</t>
   </si>
   <si>
@@ -913,34 +913,43 @@
     <t>HEMAVITON ACTION 5'S</t>
   </si>
   <si>
-    <t>10010246</t>
-  </si>
-  <si>
-    <t>NEUROBION VIT.10'S</t>
-  </si>
-  <si>
     <t>10030867</t>
   </si>
   <si>
     <t>PROCOLD OBAT FLU 6'S</t>
   </si>
   <si>
+    <t>20053803</t>
+  </si>
+  <si>
+    <t>NEUROBION FORTE 10'S</t>
+  </si>
+  <si>
     <t>20120361</t>
   </si>
   <si>
     <t>ENTROSTOP STR 10'S</t>
   </si>
   <si>
+    <t>20137414</t>
+  </si>
+  <si>
+    <t>DOLO NEUROBION 10S</t>
+  </si>
+  <si>
+    <t>TG,(E-4B)</t>
+  </si>
+  <si>
     <t>20010358</t>
   </si>
   <si>
     <t>MXAGRIP FLU&amp;BATUK 4S</t>
   </si>
   <si>
-    <t>20053803</t>
-  </si>
-  <si>
-    <t>NEUROBION FORTE 10'S</t>
+    <t>20056311</t>
+  </si>
+  <si>
+    <t>CEREBRF.GUMMY STR20G</t>
   </si>
   <si>
     <t>20090384</t>
@@ -955,13 +964,10 @@
     <t>CDR VITAMIN C 2'S</t>
   </si>
   <si>
-    <t>20137414</t>
-  </si>
-  <si>
-    <t>DOLO NEUROBION 10S</t>
-  </si>
-  <si>
-    <t>TG,(E-4B)</t>
+    <t>20112905</t>
+  </si>
+  <si>
+    <t>FATIGON SPIRIT 6'S</t>
   </si>
   <si>
     <t>10000069</t>
@@ -970,10 +976,10 @@
     <t>MIXAGRIP O.SKT FLU4S</t>
   </si>
   <si>
-    <t>20056311</t>
-  </si>
-  <si>
-    <t>CEREBRF.GUMMY STR20G</t>
+    <t>20027551</t>
+  </si>
+  <si>
+    <t>HOLSTICARE ESTR C 4S</t>
   </si>
   <si>
     <t>20090383</t>
@@ -982,28 +988,28 @@
     <t>LAXING STR 10'S</t>
   </si>
   <si>
-    <t>20112905</t>
-  </si>
-  <si>
-    <t>FATIGON SPIRIT 6'S</t>
-  </si>
-  <si>
     <t>20124298</t>
   </si>
   <si>
     <t>IM-BOOST BONE ORG 2S</t>
   </si>
   <si>
+    <t>10003650</t>
+  </si>
+  <si>
+    <t>ENERVON C TABLET 4'S</t>
+  </si>
+  <si>
     <t>20014241</t>
   </si>
   <si>
     <t>AMBEVEN U/ WASR 10'S</t>
   </si>
   <si>
-    <t>20027551</t>
-  </si>
-  <si>
-    <t>HOLSTICARE ESTR C 4S</t>
+    <t>20057705</t>
+  </si>
+  <si>
+    <t>KONIDIN OBAT BTK 5X7</t>
   </si>
   <si>
     <t>20083486</t>
@@ -1012,28 +1018,22 @@
     <t>REDOXON JERUK 2'S</t>
   </si>
   <si>
-    <t>10003650</t>
-  </si>
-  <si>
-    <t>ENERVON C TABLET 4'S</t>
-  </si>
-  <si>
     <t>20048747</t>
   </si>
   <si>
     <t>MICROLAX GEL 5ML</t>
   </si>
   <si>
-    <t>20057705</t>
-  </si>
-  <si>
-    <t>KONIDIN OBAT BTK 5X7</t>
-  </si>
-  <si>
     <t>20132440</t>
   </si>
   <si>
     <t>ULTRA CAP GOLD VIT4S</t>
+  </si>
+  <si>
+    <t>20140912</t>
+  </si>
+  <si>
+    <t>SM TOLAK ANGIN 15ML</t>
   </si>
   <si>
     <t>10000197</t>
@@ -2138,7 +2138,7 @@
         <v>23</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2218,7 +2218,7 @@
         <v>35</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2258,7 +2258,7 @@
         <v>42</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2278,7 +2278,7 @@
         <v>45</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2292,21 +2292,21 @@
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
@@ -2315,10 +2315,10 @@
         <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2335,7 +2335,7 @@
         <v>11</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>20</v>
@@ -2355,7 +2355,7 @@
         <v>11</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>20</v>
@@ -2375,7 +2375,7 @@
         <v>11</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>99</v>
@@ -2395,7 +2395,7 @@
         <v>11</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>5</v>
@@ -2415,7 +2415,7 @@
         <v>11</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>61</v>
@@ -2435,7 +2435,7 @@
         <v>11</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>20</v>
@@ -2455,7 +2455,7 @@
         <v>11</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>20</v>
@@ -2475,7 +2475,7 @@
         <v>11</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>12</v>
@@ -2495,7 +2495,7 @@
         <v>11</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>61</v>
@@ -2515,10 +2515,10 @@
         <v>11</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2535,7 +2535,7 @@
         <v>11</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>20</v>
@@ -2555,7 +2555,7 @@
         <v>11</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>20</v>
@@ -2575,7 +2575,7 @@
         <v>11</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>20</v>
@@ -2595,7 +2595,7 @@
         <v>11</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>20</v>
@@ -2615,7 +2615,7 @@
         <v>11</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>20</v>
@@ -2635,7 +2635,7 @@
         <v>11</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>20</v>
@@ -2652,21 +2652,21 @@
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>3</v>
@@ -2675,18 +2675,18 @@
         <v>15</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>3</v>
@@ -2695,10 +2695,10 @@
         <v>15</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2715,10 +2715,10 @@
         <v>15</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2735,10 +2735,10 @@
         <v>15</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2755,10 +2755,10 @@
         <v>15</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2775,10 +2775,10 @@
         <v>15</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2795,10 +2795,10 @@
         <v>15</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2815,10 +2815,10 @@
         <v>15</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2835,10 +2835,10 @@
         <v>15</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2855,7 +2855,7 @@
         <v>15</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>5</v>
@@ -2875,10 +2875,10 @@
         <v>15</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2895,10 +2895,10 @@
         <v>15</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2915,10 +2915,10 @@
         <v>15</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2935,10 +2935,10 @@
         <v>15</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2955,10 +2955,10 @@
         <v>15</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>99</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2975,10 +2975,10 @@
         <v>15</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2992,13 +2992,13 @@
         <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -3015,7 +3015,7 @@
         <v>19</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>5</v>
@@ -3035,10 +3035,10 @@
         <v>19</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -3055,10 +3055,10 @@
         <v>19</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -3075,7 +3075,7 @@
         <v>19</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>5</v>
@@ -3095,10 +3095,10 @@
         <v>19</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3115,10 +3115,10 @@
         <v>19</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3135,7 +3135,7 @@
         <v>19</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>5</v>
@@ -3155,7 +3155,7 @@
         <v>19</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>5</v>
@@ -3175,7 +3175,7 @@
         <v>19</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>5</v>
@@ -3195,7 +3195,7 @@
         <v>19</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>5</v>
@@ -3215,7 +3215,7 @@
         <v>19</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>5</v>
@@ -3235,7 +3235,7 @@
         <v>19</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>5</v>
@@ -3255,10 +3255,10 @@
         <v>19</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3275,10 +3275,10 @@
         <v>19</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3295,10 +3295,10 @@
         <v>19</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3315,10 +3315,10 @@
         <v>19</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3335,7 +3335,7 @@
         <v>19</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>20</v>
@@ -3355,18 +3355,18 @@
         <v>19</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>3</v>
@@ -3375,18 +3375,18 @@
         <v>19</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>3</v>
@@ -3395,18 +3395,18 @@
         <v>19</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>3</v>
@@ -3415,18 +3415,18 @@
         <v>19</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>3</v>
@@ -3435,18 +3435,18 @@
         <v>19</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>3</v>
@@ -3455,30 +3455,30 @@
         <v>19</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>217</v>
+        <v>4</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3498,7 +3498,7 @@
         <v>4</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3518,7 +3518,7 @@
         <v>4</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3538,15 +3538,15 @@
         <v>4</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>20</v>
+        <v>224</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>3</v>
@@ -3558,7 +3558,7 @@
         <v>4</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3575,18 +3575,18 @@
         <v>23</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>3</v>
@@ -3598,7 +3598,7 @@
         <v>8</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>231</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3618,7 +3618,7 @@
         <v>8</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3638,7 +3638,7 @@
         <v>8</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>92</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3658,7 +3658,7 @@
         <v>8</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>226</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3675,10 +3675,10 @@
         <v>23</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3698,7 +3698,7 @@
         <v>11</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>92</v>
+        <v>224</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3718,7 +3718,7 @@
         <v>11</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>226</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3738,7 +3738,7 @@
         <v>11</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>20</v>
+        <v>224</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3758,7 +3758,7 @@
         <v>11</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>226</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3775,10 +3775,10 @@
         <v>23</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3798,7 +3798,7 @@
         <v>15</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3818,7 +3818,7 @@
         <v>15</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3838,7 +3838,7 @@
         <v>15</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3858,7 +3858,7 @@
         <v>15</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3875,7 +3875,7 @@
         <v>23</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>20</v>
@@ -3898,7 +3898,7 @@
         <v>19</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3918,7 +3918,7 @@
         <v>19</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3958,7 +3958,7 @@
         <v>19</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3975,10 +3975,10 @@
         <v>23</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3998,7 +3998,7 @@
         <v>23</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>20</v>
+        <v>229</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -4018,7 +4018,7 @@
         <v>23</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>231</v>
+        <v>61</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -4038,7 +4038,7 @@
         <v>23</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -4058,7 +4058,7 @@
         <v>23</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -4075,10 +4075,10 @@
         <v>23</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -4118,7 +4118,7 @@
         <v>26</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -4138,7 +4138,7 @@
         <v>26</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -4175,10 +4175,10 @@
         <v>23</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>20</v>
+        <v>224</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -4198,7 +4198,7 @@
         <v>29</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>226</v>
+        <v>131</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -4218,7 +4218,7 @@
         <v>29</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -4238,7 +4238,7 @@
         <v>29</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>20</v>
+        <v>224</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -4258,7 +4258,7 @@
         <v>29</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -4278,7 +4278,7 @@
         <v>32</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -4298,7 +4298,7 @@
         <v>32</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>226</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -4318,7 +4318,7 @@
         <v>32</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -4355,18 +4355,18 @@
         <v>23</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>12</v>
+        <v>308</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>3</v>
@@ -4378,15 +4378,15 @@
         <v>35</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>3</v>
@@ -4398,15 +4398,15 @@
         <v>35</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>3</v>
@@ -4418,15 +4418,15 @@
         <v>35</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>3</v>
@@ -4438,7 +4438,7 @@
         <v>35</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>316</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -4455,7 +4455,7 @@
         <v>23</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>12</v>
@@ -4478,7 +4478,7 @@
         <v>39</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -4498,7 +4498,7 @@
         <v>39</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4518,7 +4518,7 @@
         <v>39</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4558,7 +4558,7 @@
         <v>42</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -4578,7 +4578,7 @@
         <v>42</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4598,7 +4598,7 @@
         <v>42</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4615,10 +4615,10 @@
         <v>23</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4658,7 +4658,7 @@
         <v>45</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>99</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4678,7 +4678,7 @@
         <v>45</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4698,7 +4698,7 @@
         <v>48</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4818,7 +4818,7 @@
         <v>57</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -4898,7 +4898,7 @@
         <v>11</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -5078,7 +5078,7 @@
         <v>42</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
